--- a/11-23-25 to 11-29-25 Madison Schedule.xlsx
+++ b/11-23-25 to 11-29-25 Madison Schedule.xlsx
@@ -2164,7 +2164,11 @@
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>This store uses same POS as Dhillons</t>
+        </is>
+      </c>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>

--- a/11-23-25 to 11-29-25 Madison Schedule.xlsx
+++ b/11-23-25 to 11-29-25 Madison Schedule.xlsx
@@ -1259,7 +1259,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1291,21 +1291,9 @@
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>10)</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr">
@@ -1366,7 +1354,11 @@
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7:00 AM START</t>
+        </is>
+      </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
@@ -1399,7 +1391,7 @@
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
@@ -1434,7 +1426,7 @@
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>HARRY'S MOBIL, BELOIT - SHOPIERE</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
@@ -1469,7 +1461,7 @@
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>HARRY'S MOBIL, BELOIT - SHOPIERE</t>
+          <t>1902 SHOPIERE RD</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
@@ -1504,7 +1496,7 @@
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>1902 SHOPIERE RD</t>
+          <t>https://goo.gl/maps/ENk9ERQQnFMmUtd77</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
@@ -1539,7 +1531,7 @@
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/ENk9ERQQnFMmUtd77</t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
@@ -1570,7 +1562,7 @@
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
@@ -1614,7 +1606,7 @@
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>HARRY'S CITGO, BELOIT</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
@@ -1653,7 +1645,7 @@
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>HARRY'S CITGO, BELOIT</t>
+          <t>1888 SHOPIERE RD</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
@@ -1692,7 +1684,7 @@
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>1888 SHOPIERE RD</t>
+          <t>https://goo.gl/maps/unBzKKpt6UgbiniP6</t>
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
@@ -1735,7 +1727,7 @@
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/unBzKKpt6UgbiniP6</t>
+          <t>*6:15 am IL Office leave time</t>
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
@@ -1777,11 +1769,7 @@
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>*6:15 am IL Office leave time</t>
-        </is>
-      </c>
+      <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
@@ -1819,9 +1807,21 @@
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Optima, Equip</t>
+        </is>
+      </c>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1848,17 +1848,17 @@
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Optima, Equip</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="H39" t="inlineStr"/>
@@ -1885,21 +1885,9 @@
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1952,7 +1940,11 @@
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
@@ -1981,7 +1973,7 @@
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-ITEM LEVEL SCAN</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
@@ -2012,7 +2004,7 @@
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL SCAN</t>
+          <t>IMPACT FUEL, NORRIDGE, IL</t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
@@ -2043,7 +2035,7 @@
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>IMPACT FUEL, NORRIDGE, IL</t>
+          <t>7700 IRVING PARK RD</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
@@ -2074,7 +2066,7 @@
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>7700 IRVING PARK RD</t>
+          <t>https://maps.app.goo.gl/htW2soNPiSg6SjtM8</t>
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
@@ -2105,7 +2097,7 @@
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/htW2soNPiSg6SjtM8</t>
+          <t>*IL Meet is 4:45 am at IL Office</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
@@ -2136,7 +2128,7 @@
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>*IL Meet is 4:45 am at IL Office</t>
+          <t>This store uses same POS as Dhillons</t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
@@ -2164,11 +2156,7 @@
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>This store uses same POS as Dhillons</t>
-        </is>
-      </c>
+      <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>

--- a/11-23-25 to 11-29-25 Madison Schedule.xlsx
+++ b/11-23-25 to 11-29-25 Madison Schedule.xlsx
@@ -1047,11 +1047,7 @@
       </c>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>*6:30 am courtesy meet at IL Office</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
@@ -1090,9 +1086,22 @@
         </is>
       </c>
       <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Camry, Equip</t>
+        </is>
+      </c>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
@@ -1131,20 +1140,15 @@
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Camry, Equip</t>
-        </is>
-      </c>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
@@ -1182,16 +1186,8 @@
         </is>
       </c>
       <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
@@ -1269,7 +1265,11 @@
       </c>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
@@ -1298,7 +1298,7 @@
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
@@ -1329,7 +1329,7 @@
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>KELLEY #55, SPRINGFIELD MOBIL, MIDDLETON</t>
         </is>
       </c>
       <c r="K25" t="inlineStr"/>
@@ -1364,7 +1364,7 @@
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
         <is>
-          <t>KELLEY #55, SPRINGFIELD MOBIL, MIDDLETON</t>
+          <t>6859 COUNTY HWY K</t>
         </is>
       </c>
       <c r="K26" t="inlineStr"/>
@@ -1399,7 +1399,7 @@
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
         <is>
-          <t>6859 COUNTY HWY K</t>
+          <t>https://goo.gl/maps/qBABmdYpW6x</t>
         </is>
       </c>
       <c r="K27" t="inlineStr"/>
@@ -1434,7 +1434,7 @@
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/qBABmdYpW6x</t>
+          <t>*IL Meet is 5:00 am at IL Office</t>
         </is>
       </c>
       <c r="K28" t="inlineStr"/>
@@ -1469,7 +1469,7 @@
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr">
         <is>
-          <t>*IL Meet is 5:00 am at IL Office</t>
+          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
         </is>
       </c>
       <c r="K29" t="inlineStr"/>
@@ -1502,11 +1502,7 @@
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
@@ -1536,9 +1532,22 @@
       </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>@ Store,
+Camry 3, Equip</t>
+        </is>
+      </c>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
@@ -1569,20 +1578,15 @@
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>@ Store,
-Camry 3, Equip</t>
-        </is>
-      </c>
+          <t>Anisha</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
@@ -1613,12 +1617,12 @@
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="K33" t="inlineStr"/>
@@ -1652,15 +1656,19 @@
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr"/>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
@@ -1691,17 +1699,18 @@
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver,
+Gray Van</t>
         </is>
       </c>
       <c r="L35" t="inlineStr"/>
@@ -1734,18 +1743,17 @@
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Driver,
-Gray Van</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L36" t="inlineStr"/>
@@ -1772,21 +1780,9 @@
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
